--- a/outputs/SORs/SOR Testing_Corp Human Resources.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Human Resources.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Professional Voluntary Turnover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AOP</t>
   </si>
   <si>
     <t xml:space="preserve">Commit/Forecast</t>
@@ -583,148 +577,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
